--- a/Projeto Gufi/Modelagem/modelagem-gufi-fisico.xlsx
+++ b/Projeto Gufi/Modelagem/modelagem-gufi-fisico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulo.santos\Downloads\SENAI\CT\2021-2S-2D\senai-dev-2s2021-alunos\sprint-1-bd\gufi\tarde\modelagens\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\2°semestre- SENAI\sprint-1_2-semestre\Projeto Gufi\Modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2D5A976-BD65-4683-AD78-12CBD7CC35B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149DBB3A-BB35-4F7C-A7E1-86D5D262920A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-36" windowWidth="23256" windowHeight="12576" xr2:uid="{0E9E795E-89FD-40FC-BD9C-CFE1DAC9D93F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E9E795E-89FD-40FC-BD9C-CFE1DAC9D93F}"/>
   </bookViews>
   <sheets>
     <sheet name="Gufi" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -188,7 +179,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="d/m/yy\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="d/m/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -361,57 +352,57 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -731,28 +722,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CB29D7-D295-4C00-8076-7520056DBAF4}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="25"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -760,7 +751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -768,7 +759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -776,322 +767,322 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>2</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>2</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>3</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>2</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
-        <v>1</v>
-      </c>
-      <c r="B14" s="12" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="18"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="B16" s="28"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
-        <v>1</v>
-      </c>
-      <c r="B18" s="15" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>1</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="16">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
         <v>3</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="20">
-        <v>1</v>
-      </c>
-      <c r="B24" s="20">
-        <v>1</v>
-      </c>
-      <c r="C24" s="20">
-        <v>1</v>
-      </c>
-      <c r="D24" s="19" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
+        <v>1</v>
+      </c>
+      <c r="B24" s="16">
+        <v>1</v>
+      </c>
+      <c r="C24" s="16">
+        <v>1</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="20">
-        <v>1</v>
-      </c>
-      <c r="F24" s="21">
+      <c r="E24" s="16">
+        <v>1</v>
+      </c>
+      <c r="F24" s="17">
         <v>44426.708333333336</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="20">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
         <v>2</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="16">
         <v>2</v>
       </c>
-      <c r="C25" s="20">
-        <v>1</v>
-      </c>
-      <c r="D25" s="19" t="s">
+      <c r="C25" s="16">
+        <v>1</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="16">
         <v>0</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="17">
         <v>44427.75</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="26" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="24">
-        <v>1</v>
-      </c>
-      <c r="B29" s="24">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="19">
+        <v>1</v>
+      </c>
+      <c r="B29" s="19">
         <v>2</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="19">
         <v>2</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="24">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="19">
         <v>2</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="19">
         <v>3</v>
       </c>
-      <c r="C30" s="24">
-        <v>1</v>
-      </c>
-      <c r="D30" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="30" t="s">
+      <c r="C30" s="19">
+        <v>1</v>
+      </c>
+      <c r="D30" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="30"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
+      <c r="B32" s="24"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="28">
-        <v>1</v>
-      </c>
-      <c r="B34" s="27" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
+        <v>1</v>
+      </c>
+      <c r="B34" s="21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="28">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
         <v>2</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="28">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
         <v>3</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="21" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1112,8 +1103,5 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
-  <ignoredErrors>
-    <ignoredError sqref="B14" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>